--- a/total final energy by aggregate sector.xlsx
+++ b/total final energy by aggregate sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rxa5674\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2FAE76-EF62-4995-80B7-E9B46E051209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D817379E-C011-47F5-897F-3DBFADD584A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="980" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="918" firstSheet="15" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNS" sheetId="37" r:id="rId1"/>
@@ -61,10 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="52">
-  <si>
-    <t>GLIMPSE-1.1-RUN1,date=2025-2-6T17:20:18-05:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="51">
   <si>
     <t>Total</t>
   </si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>GLIMPSE-1.1-RUN6,date=2025-3-6T15:44:07-05:00</t>
-  </si>
-  <si>
-    <t>TX</t>
   </si>
   <si>
     <t>GLIMPSE-1.1-RUN7,date=2025-3-6T16:10:53-05:00</t>
@@ -217,6 +211,9 @@
   </si>
   <si>
     <t>GLIMPSE-1.1-Ref,date=2025-2-6T11:57:20-05:00</t>
+  </si>
+  <si>
+    <t>GLIMPSE-1.1-RUN1,date=2025-3-6T10:03:33-05:00</t>
   </si>
 </sst>
 </file>
@@ -597,22 +594,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,20 +1322,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -1365,121 +1362,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54832238398</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6101988067799999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6571834377699901</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.68052327681999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.72466322180999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.77424223839699</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8340910983999901</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034720989999999</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1588077863299899</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6167199204390004</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0249734547429901</v>
       </c>
       <c r="I3" s="1">
-        <v>6.44</v>
+        <v>6.4385774205640001</v>
       </c>
       <c r="J3" s="1">
-        <v>6.84</v>
+        <v>6.8421522604029903</v>
       </c>
       <c r="K3" s="1">
-        <v>7.24</v>
+        <v>7.2423679716642901</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816961749524</v>
       </c>
       <c r="F4" s="1">
-        <v>3.43</v>
+        <v>3.4250455974628999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2914879259346401</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1834547205280002</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2321223252759901</v>
       </c>
       <c r="J4" s="1">
-        <v>3.31</v>
+        <v>3.3055783607599998</v>
       </c>
       <c r="K4" s="1">
-        <v>3.38</v>
+        <v>3.3847387450999902</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1492,20 +1489,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -1532,121 +1529,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5475916917000001</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6092519618900001</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65601745839</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6791196074000001</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7231099486499899</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7725085650779899</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83232310782</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034998689999901</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1580319916999997</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6140540477479997</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0187148772340002</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4270349820880002</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.8240201390988897</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2174641042277896</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.48169067864493</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4217613015759198</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2891890593865498</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1816792820939899</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2308678799089998</v>
       </c>
       <c r="J4" s="1">
-        <v>3.29</v>
+        <v>3.29358136383</v>
       </c>
       <c r="K4" s="1">
-        <v>3.36</v>
+        <v>3.3625448334999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1659,20 +1656,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -1699,121 +1696,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5480798821099999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60988346269</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6567975660600001</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.68006150685</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7241486860799899</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.77366506210699</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8335035227899901</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034800249999904</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1590781034299997</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6149601463429999</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0196049270559904</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4280799320590001</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8252553661955897</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2173095770629896</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816951230631101</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.41868165528291</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.28758583647351</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1810429185489899</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.2165054716660002</v>
       </c>
       <c r="J4" s="1">
-        <v>3.26</v>
+        <v>3.2626049406300002</v>
       </c>
       <c r="K4" s="1">
-        <v>3.31</v>
+        <v>3.3142945865</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1833,13 +1830,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -1866,121 +1863,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54795819168</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6097395006799999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6566216919299901</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6798399205399901</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7239013141799899</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7733875455079999</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8332225788899901</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034799290000002</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.16102673452</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6200765774050003</v>
       </c>
       <c r="H3" s="1">
-        <v>6.03</v>
+        <v>6.030458795176</v>
       </c>
       <c r="I3" s="1">
-        <v>6.45</v>
+        <v>6.446668739553</v>
       </c>
       <c r="J3" s="1">
-        <v>6.85</v>
+        <v>6.8536731484570002</v>
       </c>
       <c r="K3" s="1">
-        <v>7.26</v>
+        <v>7.2580700605021002</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816934157130199</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4225909053789101</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2902163868627499</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1829986996250001</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2304083665909999</v>
       </c>
       <c r="J4" s="1">
-        <v>3.29</v>
+        <v>3.2885315018900001</v>
       </c>
       <c r="K4" s="1">
-        <v>3.35</v>
+        <v>3.3529030453000002</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2000,13 +1997,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -2033,121 +2030,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54844314431</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.61036095456999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65738533424</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.68076159567999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.72491486624</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7745086929879901</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8343589767799999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034630440000003</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1582455514199896</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6142205863679999</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0188330575349998</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4271627473869897</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.8241612510076903</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2161396034395899</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816986815225999</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4160512286848999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.28558314021743</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1792477286109899</v>
       </c>
       <c r="I4" s="1">
-        <v>3.21</v>
+        <v>3.2108664715979902</v>
       </c>
       <c r="J4" s="1">
-        <v>3.25</v>
+        <v>3.25272934385</v>
       </c>
       <c r="K4" s="1">
-        <v>3.3</v>
+        <v>3.3001266829999998</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2167,13 +2164,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -2200,121 +2197,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5477165064</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6094030805899999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6562046593799999</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6793562763299901</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7233739988100001</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7728086670350001</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8326319873499901</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7035008129999998</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1587905090499904</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6147248353929999</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0193818783820001</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4278208055849904</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.8249468299702896</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2169340272147897</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816913004786301</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4193943701709202</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2879419794317402</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.181176368509</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.2206898095509899</v>
       </c>
       <c r="J4" s="1">
-        <v>3.27</v>
+        <v>3.27085387438999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.33</v>
+        <v>3.3270558774999901</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2327,20 +2324,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -2367,121 +2364,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54820004821999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6100347848299901</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6569829699799901</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6802949095499999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.72442004542</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7739802963519899</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8338306924699901</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034728499999998</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1600804152400004</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6158547622369897</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0222018384659997</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4335550246490003</v>
       </c>
       <c r="J3" s="1">
-        <v>6.84</v>
+        <v>6.8350331915049898</v>
       </c>
       <c r="K3" s="1">
-        <v>7.23</v>
+        <v>7.2318948202150999</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816965769717099</v>
       </c>
       <c r="F4" s="1">
-        <v>3.43</v>
+        <v>3.4259434640249</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.29266316839957</v>
       </c>
       <c r="H4" s="1">
-        <v>3.19</v>
+        <v>3.1850417361400001</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2343735479069999</v>
       </c>
       <c r="J4" s="1">
-        <v>3.3</v>
+        <v>3.3026002098799898</v>
       </c>
       <c r="K4" s="1">
-        <v>3.38</v>
+        <v>3.37676199409999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2501,13 +2498,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -2534,121 +2531,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54810996098</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60993427692999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6568620117699999</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.68013464151999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7242325549999999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.773761816178</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8336063364699899</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034786299999896</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1607813811299996</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6184827998199998</v>
       </c>
       <c r="H3" s="1">
-        <v>6.03</v>
+        <v>6.02762268418999</v>
       </c>
       <c r="I3" s="1">
-        <v>6.44</v>
+        <v>6.4418560061479999</v>
       </c>
       <c r="J3" s="1">
-        <v>6.85</v>
+        <v>6.8465480879089</v>
       </c>
       <c r="K3" s="1">
-        <v>7.25</v>
+        <v>7.2477947829827896</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816947098331101</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.42494471768791</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2919754573751998</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.184508165575</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2340029000329902</v>
       </c>
       <c r="J4" s="1">
-        <v>3.3</v>
+        <v>3.29811423297999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.37</v>
+        <v>3.3684820913000002</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2668,13 +2665,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -2701,121 +2698,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54762696705999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6092588620899999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65602466849</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6791607422399899</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.72317216926999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7725961675340001</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8324159741299999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034967039999902</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1587535821899904</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6147130223000001</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0193875603779903</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4278237338649902</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.8249572821418996</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2169900760258896</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816913557923299</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4184312331529201</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2873120735494501</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.18075490326</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.2174085624019901</v>
       </c>
       <c r="J4" s="1">
-        <v>3.26</v>
+        <v>3.2643829376400002</v>
       </c>
       <c r="K4" s="1">
-        <v>3.32</v>
+        <v>3.3173446141</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2835,13 +2832,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -2868,121 +2865,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5483536037299901</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.61022769962</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6572208853599999</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6805741811899999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.72472216573</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7743044866669999</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8341515638099899</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034679229999998</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1581908993099903</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6141960137640003</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0188210239720004</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4271778046280001</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.82418537974179</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2160659507315996</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816968972328</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4199989799119002</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2881149462833901</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.18099296600499</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2254430120130002</v>
       </c>
       <c r="J4" s="1">
-        <v>3.28</v>
+        <v>3.28056624037999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.34</v>
+        <v>3.3419926633000001</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2995,20 +2992,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -3035,121 +3032,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54801965195</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60980659258</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6567013900499901</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6799439402</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7240222467299899</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.773524105853</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83336118521</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034850629999996</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1589159568399996</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6148162157569903</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0194753879620002</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4279321067569999</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8250889626303897</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2170399203267896</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816939017325201</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.42133688805291</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2892410590066099</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.18211396483099</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2275878260439899</v>
       </c>
       <c r="J4" s="1">
-        <v>3.29</v>
+        <v>3.2837439716199901</v>
       </c>
       <c r="K4" s="1">
-        <v>3.35</v>
+        <v>3.3461413796999899</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3169,13 +3166,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -3202,121 +3199,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5478682658</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6095981106299999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65644497667999</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6796471395799999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7237033638499999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7731855471510001</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83301987761</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034878759999996</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1592980083500004</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6151742799869897</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0198738113230004</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4283943479919996</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8274074482573903</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2221002534748902</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816926561166199</v>
       </c>
       <c r="F4" s="1">
-        <v>3.43</v>
+        <v>3.4265028402379101</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2927349163024799</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1847344312209902</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2335173314469898</v>
       </c>
       <c r="J4" s="1">
-        <v>3.31</v>
+        <v>3.30830943303999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.39</v>
+        <v>3.3886187644999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3329,20 +3326,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -3369,121 +3366,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54823089097999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6101064655699999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6570734786800001</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6803730299199999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.72447938304</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.77402047468299</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8338645221700001</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034686199999998</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1589726946800001</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6148410869800003</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0194735718449897</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4279183252439998</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.82507107948169</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2170405611900996</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.48169615655301</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4200052533879002</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.28839766277579</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.18152392394799</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.2219882352589999</v>
       </c>
       <c r="J4" s="1">
-        <v>3.27</v>
+        <v>3.2731276726499998</v>
       </c>
       <c r="K4" s="1">
-        <v>3.33</v>
+        <v>3.3303423269999901</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3496,20 +3493,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -3536,121 +3533,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54774697380999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6094361082599999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6562423888</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6794010479299999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7234286346400001</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.772874188848</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8326946146500001</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034969010000003</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1600396109399904</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6197386740609998</v>
       </c>
       <c r="H3" s="1">
-        <v>6.03</v>
+        <v>6.0305315210000003</v>
       </c>
       <c r="I3" s="1">
-        <v>6.45</v>
+        <v>6.4469623107310001</v>
       </c>
       <c r="J3" s="1">
-        <v>6.85</v>
+        <v>6.85450570976999</v>
       </c>
       <c r="K3" s="1">
-        <v>7.26</v>
+        <v>7.2598583674554904</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.48169098730793</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4231131633229199</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2900486135538101</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.18226297276899</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.23112107303499</v>
       </c>
       <c r="J4" s="1">
-        <v>3.3</v>
+        <v>3.3005004866099998</v>
       </c>
       <c r="K4" s="1">
-        <v>3.38</v>
+        <v>3.3759205546</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3663,20 +3660,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -3703,121 +3700,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5484740181600001</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6104208716999999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65746020253</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.68083566464</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7249936535599899</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7745916523080001</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83444313623</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034601519999999</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1583974181399999</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6144713064319998</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0214404412109896</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4333470996870004</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8348365250502896</v>
       </c>
       <c r="K3" s="1">
-        <v>7.23</v>
+        <v>7.2323146675754897</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816984767022001</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4215006811388999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2891518744180699</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1817681319609998</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2302729978800002</v>
       </c>
       <c r="J4" s="1">
-        <v>3.29</v>
+        <v>3.28943748085999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.35</v>
+        <v>3.3549754384999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3830,20 +3827,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -3870,121 +3867,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5479878178699999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60975213293</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65663552994</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6798793837199999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7239626057999999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7734690275409899</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83330808382999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034890049999998</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1596414050700004</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6154755424639999</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.02016631082099</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.428744603168</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8260657720894899</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2181006857133996</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816942091727201</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4232520486079099</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.29075710380403</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1835238117529898</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.23216303480099</v>
       </c>
       <c r="J4" s="1">
-        <v>3.29</v>
+        <v>3.2914581961299998</v>
       </c>
       <c r="K4" s="1">
-        <v>3.36</v>
+        <v>3.35697976009999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3997,23 +3994,23 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -4040,121 +4037,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5476870570999901</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60937863841999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6561776289500001</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6793178039400001</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7233244773799901</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.772750919341</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8325784250399999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7035008879999998</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1598475805300001</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6156212950300004</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0203061100339896</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4288885885909997</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8262257384282901</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.21837301698669</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816917917293302</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4194833201539199</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2883864178966302</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.18196697241599</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.2165484386259902</v>
       </c>
       <c r="J4" s="1">
-        <v>3.26</v>
+        <v>3.26174166303</v>
       </c>
       <c r="K4" s="1">
-        <v>3.31</v>
+        <v>3.3123707502999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4167,20 +4164,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -4207,121 +4204,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54816935044999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6100002690899899</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6569402958799899</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6802300159900001</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7243409515999999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.77387823435099</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8337192977000001</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034751249999998</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1585572444599901</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.614504544981</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0191585061790001</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4275612768999899</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.8246480078915903</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2165205919542998</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.48169576800061</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4222643731449098</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2897102728405301</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1822667794939901</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.231623468564</v>
       </c>
       <c r="J4" s="1">
-        <v>3.29</v>
+        <v>3.29307138541999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.36</v>
+        <v>3.3608249736000002</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4341,13 +4338,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -4374,121 +4371,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5481693411499999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6100111315899901</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6569516150799899</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.68023523148</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7243376227</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.77387166768099</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8337116932599899</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034736859999997</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1580484382699998</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6140652662099999</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.01870207046899</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4270273447999999</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.8240196215425897</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2157427600114001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.48169576921181</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4241415794579102</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2907439953492901</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1827401915040001</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2313688035879999</v>
       </c>
       <c r="J4" s="1">
-        <v>3.3</v>
+        <v>3.30352582353999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.38</v>
+        <v>3.3812394351999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4501,20 +4498,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -4541,121 +4538,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5484121955600001</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6103155872499899</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65732903144999</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6807021230200001</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7248617421199901</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.774459082598</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8343128904299899</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034649569999996</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1594754774999902</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.616438963037</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0246987323899903</v>
       </c>
       <c r="I3" s="1">
-        <v>6.44</v>
+        <v>6.4375579737819901</v>
       </c>
       <c r="J3" s="1">
-        <v>6.84</v>
+        <v>6.8404294568372901</v>
       </c>
       <c r="K3" s="1">
-        <v>7.24</v>
+        <v>7.2400766828475902</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816981465421999</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4208057358979</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2889838107174501</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1820295682839999</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.22441553980899</v>
       </c>
       <c r="J4" s="1">
-        <v>3.28</v>
+        <v>3.27750981309</v>
       </c>
       <c r="K4" s="1">
-        <v>3.34</v>
+        <v>3.3367592317999901</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4668,20 +4665,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -4708,121 +4705,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5475643077599901</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6092118659700001</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6559699992399901</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6790732241699999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7230654681199999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7724713959539899</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8322932279599899</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7035027499999904</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1594775417799896</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6153206101580002</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.02002942810799</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.428578932592</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8258735537901902</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.21781682071639</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816901858095299</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.42473555654492</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2916497957836799</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1840714597669999</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.23336056566</v>
       </c>
       <c r="J4" s="1">
-        <v>3.3</v>
+        <v>3.30027713250999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.37</v>
+        <v>3.3729739535999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4835,20 +4832,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -4875,121 +4872,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5482616090499901</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6101382256100001</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65711121677999</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6804203315999999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7245328261699999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7740799603449999</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8339218825600001</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034680259999897</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1583662771799901</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6153041657570002</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0226765966039899</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4349885745669999</v>
       </c>
       <c r="J3" s="1">
-        <v>6.84</v>
+        <v>6.8372733392658898</v>
       </c>
       <c r="K3" s="1">
-        <v>7.24</v>
+        <v>7.2356317753596899</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816959836120098</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4182455154308999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2870336321102598</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1802973402110002</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.2178530823039901</v>
       </c>
       <c r="J4" s="1">
-        <v>3.27</v>
+        <v>3.2657504083300002</v>
       </c>
       <c r="K4" s="1">
-        <v>3.32</v>
+        <v>3.3197320818999998</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5009,13 +5006,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -5042,121 +5039,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5480489990299999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6098301753399999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65673052016</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.67998770648</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7240716954499899</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.773582754795</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8334175565899899</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034839289999999</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1583347277399998</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6143240056129997</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0193203142289997</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4299755837509904</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8302274224363897</v>
       </c>
       <c r="K3" s="1">
-        <v>7.23</v>
+        <v>7.2266141012591998</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816944077033098</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.41844569584091</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2871593838842399</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1804105222729899</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.2189242350639899</v>
       </c>
       <c r="J4" s="1">
-        <v>3.27</v>
+        <v>3.2680691844699998</v>
       </c>
       <c r="K4" s="1">
-        <v>3.32</v>
+        <v>3.32298961689999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5169,7 +5166,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,13 +5176,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -5212,121 +5209,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54780799040999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60954136649999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65637699474</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6795454979</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7235682111999999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7730137802349899</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83284046419999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034919549999996</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1600797578100002</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6191881555350003</v>
       </c>
       <c r="H3" s="1">
-        <v>6.03</v>
+        <v>6.0287068882309898</v>
       </c>
       <c r="I3" s="1">
-        <v>6.44</v>
+        <v>6.4439940842009999</v>
       </c>
       <c r="J3" s="1">
-        <v>6.85</v>
+        <v>6.8500437494899904</v>
       </c>
       <c r="K3" s="1">
-        <v>7.25</v>
+        <v>7.2533055348098996</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816912740066202</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4169122995439198</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2863578080549098</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.18009171913299</v>
       </c>
       <c r="I4" s="1">
-        <v>3.21</v>
+        <v>3.2112644210450001</v>
       </c>
       <c r="J4" s="1">
-        <v>3.25</v>
+        <v>3.25281596559</v>
       </c>
       <c r="K4" s="1">
-        <v>3.3</v>
+        <v>3.2998810749</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5346,13 +5343,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -5379,121 +5376,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5482915531200001</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6101751798499999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6571591797799901</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.68048981445999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.72462276579</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.77419061679599</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8340460004400001</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034731020000002</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.16017772962</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.615912406684</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0205935024299899</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4292416759559998</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8266631044540897</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2187626336100896</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816965542822098</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4235018983999002</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.29111309594186</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.18398613327399</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2305208897139899</v>
       </c>
       <c r="J4" s="1">
-        <v>3.29</v>
+        <v>3.28775174446</v>
       </c>
       <c r="K4" s="1">
-        <v>3.35</v>
+        <v>3.3511290920999901</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5513,13 +5510,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -5546,121 +5543,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5479417716399999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6097179069499901</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65659675771999</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6798159276</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7238746815699899</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.773361926492</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83320055389999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.70348203</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1601580069899997</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6158903088589902</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0205825208699899</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4297889339029997</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8295918279854</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2245656942273904</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816930526382199</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.42112177024091</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2895613861820299</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1829138050560002</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.2221042374170001</v>
       </c>
       <c r="J4" s="1">
-        <v>3.27</v>
+        <v>3.2717840173399999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.33</v>
+        <v>3.32721796189999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5680,13 +5677,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -5713,121 +5710,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54842869649</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6103427889599899</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6573618427500001</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.68073596715</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7248959076299999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7744962680229901</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8343499786799999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034630880000003</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.15877660572</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6146901411589996</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0193465632919896</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4277859225930003</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.8249285114457896</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.21678612777289</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816984249264</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4240565911298999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.29095533215814</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1832181452339898</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2322730773030002</v>
       </c>
       <c r="J4" s="1">
-        <v>3.3</v>
+        <v>3.2996225286</v>
       </c>
       <c r="K4" s="1">
-        <v>3.37</v>
+        <v>3.3730032388999902</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5847,13 +5844,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -5880,121 +5877,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5477012422499901</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60940110124999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6562018968700001</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6793369578899899</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.72334519429999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7727684445079901</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8325878257599999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7035018759999998</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1582894963099903</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6142617853249996</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0189210643599997</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4272768504000002</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.824300215629</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2161482353344901</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.48169103949393</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4209867491739199</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.28877803220856</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1815012003119998</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2283051401579899</v>
       </c>
       <c r="J4" s="1">
-        <v>3.29</v>
+        <v>3.28596292493999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.35</v>
+        <v>3.3498082246999998</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6006,21 +6003,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E820943-62BC-412C-832C-D883D2498A6C}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -6047,121 +6044,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54818559638</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6100265013199999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6569758324799899</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6802715072199901</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7243749560099899</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.77391396029699</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83375996735999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034730040000001</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1602213503499899</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6184092546870001</v>
       </c>
       <c r="H3" s="1">
-        <v>6.03</v>
+        <v>6.0275081311849901</v>
       </c>
       <c r="I3" s="1">
-        <v>6.44</v>
+        <v>6.4420586022349902</v>
       </c>
       <c r="J3" s="1">
-        <v>6.85</v>
+        <v>6.8470063166565902</v>
       </c>
       <c r="K3" s="1">
-        <v>7.25</v>
+        <v>7.2487627191956001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.48169622038571</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4177624075719102</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.28712644499601</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1808830865919999</v>
       </c>
       <c r="I4" s="1">
-        <v>3.21</v>
+        <v>3.212099803329</v>
       </c>
       <c r="J4" s="1">
-        <v>3.25</v>
+        <v>3.25342537250999</v>
       </c>
       <c r="K4" s="1">
-        <v>3.3</v>
+        <v>3.3003012607</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +6170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E960C30E-6C8C-4F37-BCDF-C522D5096888}">
   <dimension ref="B5:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6181,13 +6178,13 @@
   <sheetData>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2015</v>
@@ -6214,18 +6211,18 @@
         <v>2050</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>1.47</v>
@@ -6252,18 +6249,18 @@
         <v>1.84</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>4.34</v>
@@ -6290,18 +6287,18 @@
         <v>7.22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
         <v>3.43</v>
@@ -6328,7 +6325,7 @@
         <v>3.43</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6348,13 +6345,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -6381,121 +6378,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5477766401099999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6094741807299999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65629320122</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.67947120512</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7235117466699901</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.772972647792</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83280336794</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.703495899</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1595667333100002</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6154124466750002</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0201119536009999</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4286752522940001</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8259986722529904</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2179752598203901</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816915853572299</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.42456951900592</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2915797248377698</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1840670925530001</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2334487177649902</v>
       </c>
       <c r="J4" s="1">
-        <v>3.3</v>
+        <v>3.2990839938700001</v>
       </c>
       <c r="K4" s="1">
-        <v>3.37</v>
+        <v>3.37058911709999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6515,13 +6512,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -6548,121 +6545,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54838321649</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.6102988672499901</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6573119276599999</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6806642389499999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7248030210500001</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.774382199078</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83423468302</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034681220000003</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1592113913000004</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6150511214599996</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0196900396709898</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.429573890266</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8291552315083903</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2248711360994902</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816975794131002</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4183368272979</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2874127530876001</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1809575928679998</v>
       </c>
       <c r="I4" s="1">
-        <v>3.21</v>
+        <v>3.2145088883550001</v>
       </c>
       <c r="J4" s="1">
-        <v>3.26</v>
+        <v>3.25838763982</v>
       </c>
       <c r="K4" s="1">
-        <v>3.31</v>
+        <v>3.3081029562999902</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6675,20 +6672,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -6715,121 +6712,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54789796541</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60962283845999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6564745890000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.67968542596999</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7237481235299901</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.773229864833</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.83305807158999</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034859850000004</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.15814516928</v>
       </c>
       <c r="G3" s="1">
-        <v>5.61</v>
+        <v>5.6141727251700004</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0188324516179996</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4271887387410001</v>
       </c>
       <c r="J3" s="1">
-        <v>6.82</v>
+        <v>6.8242012717614999</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2160456885853899</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.48169222090372</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4213455211419102</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2889712608936001</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1815956303820001</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2309662740059899</v>
       </c>
       <c r="J4" s="1">
-        <v>3.29</v>
+        <v>3.2911021859499998</v>
       </c>
       <c r="K4" s="1">
-        <v>3.36</v>
+        <v>3.3576637428999998</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6843,20 +6840,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -6883,121 +6880,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.54</v>
+        <v>1.54099652261</v>
       </c>
       <c r="F2" s="1">
-        <v>1.6</v>
+        <v>1.60054358731</v>
       </c>
       <c r="G2" s="1">
-        <v>1.65</v>
+        <v>1.6454045723499899</v>
       </c>
       <c r="H2" s="1">
-        <v>1.67</v>
+        <v>1.6666679525299899</v>
       </c>
       <c r="I2" s="1">
-        <v>1.71</v>
+        <v>1.7095555394099999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.76</v>
+        <v>1.75762263375199</v>
       </c>
       <c r="K2" s="1">
-        <v>1.82</v>
+        <v>1.8172280862700001</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7038418329999896</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1593557790400002</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6154775651359996</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.0205087443249896</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4291476393479998</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8265897952536996</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2185644757233902</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816306451110099</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.42474857636312</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2916245447925601</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1844520267030001</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2338798673789899</v>
       </c>
       <c r="J4" s="1">
-        <v>3.3</v>
+        <v>3.3046944409299899</v>
       </c>
       <c r="K4" s="1">
-        <v>3.38</v>
+        <v>3.3811644933</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7017,13 +7014,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -7050,121 +7047,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.5476554737899999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60931730514</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.65610255113</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.6792416879500001</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7232557984499901</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.7726856465479901</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8325119626599899</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7035039319999896</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1611635134199902</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6193160764989996</v>
       </c>
       <c r="H3" s="1">
-        <v>6.03</v>
+        <v>6.0288920666249899</v>
       </c>
       <c r="I3" s="1">
-        <v>6.44</v>
+        <v>6.4435408159349903</v>
       </c>
       <c r="J3" s="1">
-        <v>6.85</v>
+        <v>6.8490297010909904</v>
       </c>
       <c r="K3" s="1">
-        <v>7.25</v>
+        <v>7.2515736714173</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.48169112629013</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.42162625565792</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.2898094349856302</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.18302268940699</v>
       </c>
       <c r="I4" s="1">
-        <v>3.22</v>
+        <v>3.2245464218779998</v>
       </c>
       <c r="J4" s="1">
-        <v>3.28</v>
+        <v>3.27675813291</v>
       </c>
       <c r="K4" s="1">
-        <v>3.33</v>
+        <v>3.334962166</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7184,13 +7181,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -7217,121 +7214,121 @@
         <v>2050</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.47</v>
+        <v>1.4746016929999901</v>
       </c>
       <c r="E2" s="1">
-        <v>1.55</v>
+        <v>1.54783775761</v>
       </c>
       <c r="F2" s="1">
-        <v>1.61</v>
+        <v>1.60957440675999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.66</v>
+        <v>1.6564189969600001</v>
       </c>
       <c r="H2" s="1">
-        <v>1.68</v>
+        <v>1.67960658359</v>
       </c>
       <c r="I2" s="1">
-        <v>1.72</v>
+        <v>1.7236473323199999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.77</v>
+        <v>1.773111644658</v>
       </c>
       <c r="K2" s="1">
-        <v>1.83</v>
+        <v>1.8329436290600001</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4.34</v>
+        <v>4.3437867909999897</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7</v>
+        <v>4.7034899220000002</v>
       </c>
       <c r="F3" s="1">
-        <v>5.16</v>
+        <v>5.1597452707599896</v>
       </c>
       <c r="G3" s="1">
-        <v>5.62</v>
+        <v>5.6155355708729999</v>
       </c>
       <c r="H3" s="1">
-        <v>6.02</v>
+        <v>6.02022491526</v>
       </c>
       <c r="I3" s="1">
-        <v>6.43</v>
+        <v>6.4287988657329898</v>
       </c>
       <c r="J3" s="1">
-        <v>6.83</v>
+        <v>6.8261250403020002</v>
       </c>
       <c r="K3" s="1">
-        <v>7.22</v>
+        <v>7.2181866884650896</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.43</v>
+        <v>3.4307033429499998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.48</v>
+        <v>3.4816918747560202</v>
       </c>
       <c r="F4" s="1">
-        <v>3.42</v>
+        <v>3.4219514146699099</v>
       </c>
       <c r="G4" s="1">
-        <v>3.29</v>
+        <v>3.28994245796734</v>
       </c>
       <c r="H4" s="1">
-        <v>3.18</v>
+        <v>3.1829909303009898</v>
       </c>
       <c r="I4" s="1">
-        <v>3.23</v>
+        <v>3.2266477446849899</v>
       </c>
       <c r="J4" s="1">
-        <v>3.28</v>
+        <v>3.28095396843</v>
       </c>
       <c r="K4" s="1">
-        <v>3.34</v>
+        <v>3.34103992239999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
